--- a/pred_ohlcv/54_21/2019-10-17 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LBA ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-93648.0796</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-58974.0796</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-62644.0796</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-62644.0796</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>40020.924</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>40020.924</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-59979.0759</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-59979.0759</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-106626.1229</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-106433.1229</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-466587.1648999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-349716.1648999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-584438.7882999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-552657.9408999999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-552657.9408999999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-555759.0578999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-270235.6384999999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-270235.6384999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LBA ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-93648.0796</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-62644.0796</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-62644.0796</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-62644.0796</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>40020.924</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>40020.924</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>40020.924</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-59979.0759</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-106626.1229</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-106433.1229</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-206433.1229</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-466587.1648999999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-349716.1648999999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-313916.1648999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-552657.9408999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-552657.9408999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-576257.9408999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-515559.0578999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-555759.0578999999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-351473.6912999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-377286.3692999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-377286.3692999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-263022.5949999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-270235.6384999999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-270235.6384999999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
